--- a/Testing/BiLSTM_LTC_result.xlsx
+++ b/Testing/BiLSTM_LTC_result.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7976704139951636</v>
+        <v>0.9605925491058162</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5977617091931023</v>
+        <v>0.7532338984181276</v>
       </c>
       <c r="G1" t="n">
-        <v>1.016830070156814</v>
+        <v>1.291028059437353</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7003782116809997</v>
+        <v>0.8358190476557743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4970334081292488</v>
+        <v>0.6278296949339183</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8321106421477795</v>
+        <v>1.054310521711935</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7222555820153673</v>
+        <v>0.9260540439460296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5154315149195484</v>
+        <v>0.7169189705201379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.85500936383154</v>
+        <v>1.214594902403009</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.813832404235295</v>
+        <v>0.7689098446143028</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6006064851817663</v>
+        <v>0.5676724368618725</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9886871487434681</v>
+        <v>0.9523376428350426</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6479658136916715</v>
+        <v>0.6240011556400308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4544111597535695</v>
+        <v>0.4205546516433044</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7689828350282529</v>
+        <v>0.7018461487525343</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.592055773874774</v>
+        <v>0.6393803058285136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3961501420283978</v>
+        <v>0.4372964234798855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6651775010679184</v>
+        <v>0.7221468202629076</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7287073918620209</v>
+        <v>0.8092916956922197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5691564162489775</v>
+        <v>0.6223574874323592</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9683401377252636</v>
+        <v>1.069071781969139</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6128206933632552</v>
+        <v>0.6597170359853461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4129566897521446</v>
+        <v>0.4586528232785985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6869397411877733</v>
+        <v>0.7595614021366609</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7100453720748288</v>
+        <v>0.5927119931300765</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5231489696081268</v>
+        <v>0.3964886591019633</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8613950046695107</v>
+        <v>0.6673328773316621</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8504230515351074</v>
+        <v>1.069642612270421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6174460925011532</v>
+        <v>0.7966873061579459</v>
       </c>
       <c r="G10" t="n">
-        <v>1.021787369370134</v>
+        <v>1.315035436454255</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>0.856730550270588</v>
+        <v>1.102425862814342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6352139205126438</v>
+        <v>0.852465813456256</v>
       </c>
       <c r="G11" t="n">
-        <v>1.062238275013254</v>
+        <v>1.43584449171716</v>
       </c>
     </row>
     <row r="12">
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7957422495422516</v>
+        <v>1.07760298767766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5693970041119284</v>
+        <v>0.8381960504068696</v>
       </c>
       <c r="G12" t="n">
-        <v>0.93403792155094</v>
+        <v>1.417369608136598</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>1.073033338462114</v>
+        <v>0.8774588107526741</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8511848339480237</v>
+        <v>0.6754981604552411</v>
       </c>
       <c r="G13" t="n">
-        <v>1.44947830716091</v>
+        <v>1.153301394063806</v>
       </c>
     </row>
     <row r="14">
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>1.139798307368248</v>
+        <v>0.9044492889168272</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9213447452951913</v>
+        <v>0.6585853477463436</v>
       </c>
       <c r="G14" t="n">
-        <v>1.590997057680775</v>
+        <v>1.066064031527125</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7567752090591731</v>
+        <v>0.902648679660166</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5649716186230275</v>
+        <v>0.6614381679731847</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9553274969434266</v>
+        <v>1.073770616063568</v>
       </c>
     </row>
     <row r="16">
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9366973081284331</v>
+        <v>0.6605675555940443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7562724156448404</v>
+        <v>0.4740862461476658</v>
       </c>
       <c r="G16" t="n">
-        <v>1.344232005349405</v>
+        <v>0.8203759609488612</v>
       </c>
     </row>
     <row r="17">
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7503281697246971</v>
+        <v>0.7839921060193217</v>
       </c>
       <c r="F17" t="n">
-        <v>0.556784223133274</v>
+        <v>0.5993954929913434</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9340420353442983</v>
+        <v>1.026870159863891</v>
       </c>
     </row>
     <row r="18">
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7367269645452723</v>
+        <v>0.6778224190175138</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5454978040828944</v>
+        <v>0.4990288073100267</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9167962585312482</v>
+        <v>0.8648520753089793</v>
       </c>
     </row>
     <row r="19">
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>5.765675830600054</v>
+        <v>4.858104196035002</v>
       </c>
       <c r="F19" t="n">
-        <v>5.625470373587929</v>
+        <v>4.695753565567633</v>
       </c>
       <c r="G19" t="n">
-        <v>9.863023476717213</v>
+        <v>8.254657169552935</v>
       </c>
     </row>
     <row r="20">
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>7.898502996876199</v>
+        <v>4.92489805416622</v>
       </c>
       <c r="F20" t="n">
-        <v>7.77917211855432</v>
+        <v>4.789907035696355</v>
       </c>
       <c r="G20" t="n">
-        <v>13.59338951296938</v>
+        <v>8.39828406802458</v>
       </c>
     </row>
     <row r="21">
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>7.169222910135811</v>
+        <v>6.835549015906014</v>
       </c>
       <c r="F21" t="n">
-        <v>7.051056443858444</v>
+        <v>6.69311135484975</v>
       </c>
       <c r="G21" t="n">
-        <v>12.32410454645133</v>
+        <v>11.7263721491986</v>
       </c>
     </row>
     <row r="22">
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>3.626521739587441</v>
+        <v>3.750210716258738</v>
       </c>
       <c r="F22" t="n">
-        <v>3.486000663236966</v>
+        <v>3.629806651945092</v>
       </c>
       <c r="G22" t="n">
-        <v>6.155479472080878</v>
+        <v>6.37535097166895</v>
       </c>
     </row>
     <row r="23">
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7694292834004072</v>
+        <v>0.9706092892165131</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5390180338952091</v>
+        <v>0.7388715236510652</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8740281794024444</v>
+        <v>1.189854578699861</v>
       </c>
     </row>
     <row r="24">
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>3.261464122326554</v>
+        <v>0.9129324811803226</v>
       </c>
       <c r="F24" t="n">
-        <v>3.101295179530136</v>
+        <v>0.6722850469293833</v>
       </c>
       <c r="G24" t="n">
-        <v>5.502189085075137</v>
+        <v>1.078530205957412</v>
       </c>
     </row>
     <row r="25">
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>2.02458981736238</v>
+        <v>2.009342654725692</v>
       </c>
       <c r="F25" t="n">
-        <v>1.933255643699862</v>
+        <v>1.894768391538079</v>
       </c>
       <c r="G25" t="n">
-        <v>3.368125506701622</v>
+        <v>3.340627123346719</v>
       </c>
     </row>
     <row r="26">
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>2.312031070199523</v>
+        <v>0.7778471335453576</v>
       </c>
       <c r="F26" t="n">
-        <v>2.2306019687561</v>
+        <v>0.5786797799863507</v>
       </c>
       <c r="G26" t="n">
-        <v>3.882174977363675</v>
+        <v>0.9447193658356792</v>
       </c>
     </row>
     <row r="27">
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>2.151008525934353</v>
+        <v>0.7360587076011765</v>
       </c>
       <c r="F27" t="n">
-        <v>2.025953360316621</v>
+        <v>0.5256032703757058</v>
       </c>
       <c r="G27" t="n">
-        <v>3.584270208109029</v>
+        <v>0.8547871542781851</v>
       </c>
     </row>
   </sheetData>
